--- a/data/trans_dic/P25A_10_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25A_10_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por varices en las piernas</t>
+          <t>Población con limitación por varices en las piernas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7,8%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8,55%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,8%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
           <t>2,4%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>2,26%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>20,8%</t>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>5,3%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>5,33%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,05</t>
+          <t>0,38; 1,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,87</t>
+          <t>0,72; 3,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,38</t>
+          <t>0,56; 2,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,27; 32,28</t>
+          <t>0,7; 2,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 6,04</t>
+          <t>1,7; 4,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,65</t>
+          <t>0,91; 3,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,58</t>
+          <t>3,06; 6,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,2; 27,42</t>
+          <t>2,1; 4,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 3,66</t>
+          <t>2,11; 4,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,51</t>
+          <t>3,25; 6,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,12</t>
+          <t>6,13; 10,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,85; 26,11</t>
+          <t>6,28; 11,5</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 3,85</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,66; 3,45</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 3,19</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 3,83</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>4,27; 6,67</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>3,99; 7,02</t>
         </is>
       </c>
     </row>
@@ -801,57 +910,87 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,81%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>7,52%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8,45%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
           <t>2,28%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>2,36%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>33,84%</t>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>5,1%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,71</t>
+          <t>0,45; 2,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,33</t>
+          <t>0,37; 2,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,6</t>
+          <t>0,54; 2,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,66; 45,1</t>
+          <t>0,67; 4,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 6,77</t>
+          <t>2,41; 8,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,02</t>
+          <t>0,52; 2,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,09</t>
+          <t>2,7; 7,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,95; 53,64</t>
+          <t>2,34; 5,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 3,89</t>
+          <t>2,1; 8,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,31</t>
+          <t>4,7; 11,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,76</t>
+          <t>5,08; 12,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,54; 46,35</t>
+          <t>6,03; 12,17</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,06; 4,32</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 3,17</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1,69; 4,87</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>2,82; 7,05</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>4,35; 9,03</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>3,53; 7,03</t>
         </is>
       </c>
     </row>
@@ -936,17 +1105,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +1125,72 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>5,72%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5,66%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>4,54%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>6,17%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,71%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1203,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,82</t>
+          <t>0,0; 4,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 7,2</t>
+          <t>1,26; 7,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,78</t>
+          <t>0,0; 3,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1223,72 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,96; 19,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,12</t>
+          <t>0,0; 3,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 9,95</t>
+          <t>4,4; 15,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>2,71; 11,14</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2,91; 10,06</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>3,26; 10,27</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>2,57; 7,44</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
+          <t>2,92; 12,33</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 8,15</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,91; 7,47</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 5,2</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 6,67</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>8,35%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>5,02%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,66</t>
+          <t>0,6; 1,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,71</t>
+          <t>0,97; 2,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1,9</t>
+          <t>0,71; 1,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,62; 31,14</t>
+          <t>0,85; 2,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,44</t>
+          <t>2,19; 4,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 4,53</t>
+          <t>0,9; 2,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 4,75</t>
+          <t>3,94; 6,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,97; 30,78</t>
+          <t>2,68; 4,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 3,87</t>
+          <t>2,8; 5,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 3,34</t>
+          <t>3,84; 6,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 3,06</t>
+          <t>6,37; 9,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,86; 29,07</t>
+          <t>6,82; 10,44</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>2,46; 3,9</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 3,3</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 3,38</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 4,17</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>4,64; 6,63</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>4,09; 6,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por varices en las piernas (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>16051</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25528</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19731</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3114</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6209</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>29265</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>80722</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>57825</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>57774</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>10452</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>18361</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>154079</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>96773</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>83354</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>77505</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>13566</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>24569</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>183344</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6267; 32437</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11825; 58786</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9291; 35717</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1596; 5814</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3876; 9303</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>14927; 55251</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>55230; 112118</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>38298; 84810</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>38316; 87441</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7723; 14441</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14434; 23680</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>113202; 207266</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>69288; 132670</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>57728; 119867</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>50901; 110473</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>10202; 17884</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>19767; 30908</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>137491; 241682</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16877</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13792</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17734</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3414</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>19888</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>64533</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>48789</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>53812</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4857</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5652</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>121459</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>81410</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>62581</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>71546</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>6212</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>9066</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>141347</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6211; 34341</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5091; 27961</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7462; 35937</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>483; 2938</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1758; 5914</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7203; 41243</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>37527; 100750</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>32083; 70957</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>28898; 114594</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3035; 7615</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3398; 8666</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>83810; 169094</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>56850; 119350</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>41619; 87081</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>46784; 134469</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>3860; 9644</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>6090; 12634</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>97891; 194790</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15465</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2374</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3569</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>35736</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>23319</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>23400</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>25421</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>39204</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>38785</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>25774</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>28990</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18427</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5285; 31204</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12797</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16122</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18012; 61738</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11071; 45429</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12002; 41421</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12042; 50774</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>22793; 67870</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>24062; 61835</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>13277; 43428</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>14862; 55672</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>36395</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>54786</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>39839</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9623</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>52722</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>180991</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>129934</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>134987</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>15308</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>24012</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>300959</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>217387</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>184720</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>174826</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>19778</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>33635</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>353681</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>20818; 59726</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>33515; 90966</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>24613; 62645</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2560; 7496</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6595; 13482</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>30854; 81916</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>141845; 240027</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>96592; 169210</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>100939; 196356</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>11601; 20069</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>19257; 29358</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>245866; 376216</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>173173; 275173</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>147122; 232540</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>133144; 238466</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>15864; 25149</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>27962; 40013</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>288285; 447133</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
